--- a/AMS_DDS_Conventies.xlsx
+++ b/AMS_DDS_Conventies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snbv-my.sharepoint.com/personal/arjen_rademaker_schiphol_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C50C0D16-D8DD-4A1A-A75E-859E07939906}"/>
+  <xr:revisionPtr revIDLastSave="405" documentId="8_{797709F9-9F51-4252-9A44-4503CF276D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{217042C8-5C98-4C5B-80B8-825BC7C7E11D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
+    <workbookView xWindow="86280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2D98358A-0058-41E3-9878-D5F4C4F5CB06}"/>
   </bookViews>
   <sheets>
     <sheet name="Conventies" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
   <si>
     <t>134^HNK</t>
   </si>
@@ -84,18 +84,9 @@
     <t>^RT\d{3}$</t>
   </si>
   <si>
-    <t>^\d{1,3}\^[A-Z]{1,3}\d{1,2}/[A-Z]?\d{1,2}(/([A-Z]{1,2})?\d{1,2})?$</t>
-  </si>
-  <si>
-    <t>^\d{1,3}\^[A-Z]{1,4}$</t>
-  </si>
-  <si>
     <t>AasCode - Voorbeeld</t>
   </si>
   <si>
-    <t>AasCode - Regular epression</t>
-  </si>
-  <si>
     <t>Assetbeschrijving - Voorbeeld</t>
   </si>
   <si>
@@ -141,12 +132,6 @@
     <t>^Glasplaat, [[aascode]], .*$</t>
   </si>
   <si>
-    <t>1.00.00.00.D</t>
-  </si>
-  <si>
-    <t>1.00.00.00.JP</t>
-  </si>
-  <si>
     <t>1.06.00.00</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>1.06.02.01.PAS</t>
   </si>
   <si>
-    <t>1.00.00.00.E, 1.00.00.00.BP</t>
-  </si>
-  <si>
     <t>1.00.00.00, 1.06.00.00, 1.06.02.00, 1.06.02.01</t>
   </si>
   <si>
@@ -189,12 +171,6 @@
     <t>1.00.00.00.XVP, 1.00.00.00.XVS, 1.06.00.00.XVV, 1.00.00.00.XVZ, 1.00.00.00.NA, 1.06.00.00.XVT, 1.06.00.00.XVK, 1.06.00.00.PA, 1.06.00.00.TA, 1.06.00.00.XA, 1.06.02.00.FS, 1.06.02.00.ITC, 1.06.02.01.FS, 1.06.02.01.ITC</t>
   </si>
   <si>
-    <t>^\d{1}\.\d{2}\.\d{2}\.\d{2}\.JP(\.\d{2})?$</t>
-  </si>
-  <si>
-    <t>^\d{1}\.\d{2}\.\d{2}\.\d{2}\.D(\.\d{2})?$</t>
-  </si>
-  <si>
     <t>^AKR \d{1}\.\d{2} [A-Za-z0-9 ]+, [[aascode]], .*$</t>
   </si>
   <si>
@@ -264,9 +240,6 @@
     <t>AKR 1.05 Omloopafsluiter, 1.05.01.00.XVC, T1-01-R1272</t>
   </si>
   <si>
-    <t>AKR 1.05 Jockeypomp, 1.05.01.00.JP, T1-01-R1272</t>
-  </si>
-  <si>
     <t>AKR 1.05 Sprinklerkop, 1.05.01.00.XVC, T1-01-R1272</t>
   </si>
   <si>
@@ -300,12 +273,6 @@
     <t>AKR 1.05 Alarmklepruimte, 1.05.01.00, T1-01-R1272</t>
   </si>
   <si>
-    <t>AKR 1.05 Diesel-pomp, 1.05.01.00.D, T1-01-R1272</t>
-  </si>
-  <si>
-    <t>AKR 1.05 Electro-pomp, 1.05.01.00.E, T1-01-R1272</t>
-  </si>
-  <si>
     <t>IRI (o.b.v. DDS 3.5)</t>
   </si>
   <si>
@@ -339,15 +306,6 @@
     <t>Glasplaat</t>
   </si>
   <si>
-    <t>BluswaterPompsysteemJockeypomp</t>
-  </si>
-  <si>
-    <t>BluswaterPompsysteemSprinklerpomp</t>
-  </si>
-  <si>
-    <t>BluswaterPompsysteemSprinklerpompDagtankdiesel</t>
-  </si>
-  <si>
     <t>LeidingenEnAppendagesSprinkler</t>
   </si>
   <si>
@@ -402,21 +360,9 @@
     <t>[1,2 of 3-cijfers]^HNK</t>
   </si>
   <si>
-    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].00.JP</t>
-  </si>
-  <si>
-    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].00.[E-P]</t>
-  </si>
-  <si>
-    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].00.D</t>
-  </si>
-  <si>
     <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].00.[Afkorting component]</t>
   </si>
   <si>
-    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].[2 cijfers].[Afkorting component]</t>
-  </si>
-  <si>
     <t>ObjectID benodigd?</t>
   </si>
   <si>
@@ -424,6 +370,66 @@
   </si>
   <si>
     <t>Nee</t>
+  </si>
+  <si>
+    <t>^\d{1,3}(-\d{1,2})?\^[A-Z]{1,4}$</t>
+  </si>
+  <si>
+    <t>^\d{1,3}(-\d{1,2})?\^[A-Z]{1,3}\d{1,2}/[A-Z]?\d{1,2}(/([A-Z]{1,2})?\d{1,2})?$</t>
+  </si>
+  <si>
+    <t>AasCode - Regular expression</t>
+  </si>
+  <si>
+    <t>^\d{1}\.\d{2}\.\d{2}\.00\.[A-Z]{1,3}(\.\d{2})?$</t>
+  </si>
+  <si>
+    <t>^\d{1}\.\d{2}\.\d{2}\.\d{2}\.PAS(\.\d{2})?$</t>
+  </si>
+  <si>
+    <t>^\d{1}\.\d{2}\.\d{2}\.\d{2}\.XV(\.\d{2})?$</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].[sectienr]</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].[sectienr].[Afkorting component]</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].[sectienr].PAS</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].[sectienr].XV</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr]</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].[alarmklepnr].00.COM</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].00.00</t>
+  </si>
+  <si>
+    <t>[waterbuffer].[alarmklepruimte].[sectienr].00</t>
+  </si>
+  <si>
+    <t>RT[nummer]</t>
+  </si>
+  <si>
+    <t>G[nummer]</t>
+  </si>
+  <si>
+    <t>HB[nummer]</t>
+  </si>
+  <si>
+    <t>RP[nummer]</t>
+  </si>
+  <si>
+    <t>L[nummer]</t>
+  </si>
+  <si>
+    <t>RT[nummer van roltrap waar het glas zich in bevindt]</t>
   </si>
 </sst>
 </file>
@@ -557,13 +563,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}" name="Tabel1" displayName="Tabel1" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}" name="Tabel1" displayName="Tabel1" ref="A1:I23" totalsRowShown="0">
+  <autoFilter ref="A1:I23" xr:uid="{8BE26161-F795-4918-987F-8C9B910BE80A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{500614DB-F066-4803-9D7F-D1DF260731DF}" name="Assetgroep"/>
     <tableColumn id="6" xr3:uid="{B187B50A-9B2E-4EB0-AB39-0E7B1305F4A0}" name="IRI (o.b.v. DDS 3.5)"/>
     <tableColumn id="9" xr3:uid="{B8AE657D-A708-4F28-84C6-AA8961A65712}" name="ObjectID benodigd?"/>
-    <tableColumn id="3" xr3:uid="{42DBBC0D-DB7E-42B7-9B77-EA00B6F0EF9F}" name="AasCode - Regular epression" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{42DBBC0D-DB7E-42B7-9B77-EA00B6F0EF9F}" name="AasCode - Regular expression" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{8C12A5AD-4BA1-406F-9DC0-B27B7576E7E3}" name="AasCode - Opbouw" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{018765EF-F5D8-4DC5-A1EB-8C4B54B8A1EC}" name="AasCode - Voorbeeld" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{0BC790AE-DF3D-4129-9FF1-3C37576075EC}" name="Assetbeschrijving - Regular expression" dataDxfId="2"/>
@@ -891,97 +897,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA06F8D5-91AC-47C4-8305-7327008941AA}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="48" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.26171875" customWidth="1"/>
     <col min="4" max="4" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="55.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="49.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.15625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.15625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.26171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="55.68359375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.83984375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="81.26171875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -990,620 +996,581 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
         <v>101</v>
       </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="I23" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1619,26 +1586,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5">
         <v>46076</v>
